--- a/data_xlsx/中国_银行代客远期结售汇签约差额_人民币_当月值.xlsx
+++ b/data_xlsx/中国_银行代客远期结售汇签约差额_人民币_当月值.xlsx
@@ -1378,8 +1378,16 @@
         <v>1991.197929</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="3" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45107.0</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>1195.261165</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
